--- a/data/unchecked/manual_collect/china/tianjin/tianjinCaseStatistics_20200606.xlsx
+++ b/data/unchecked/manual_collect/china/tianjin/tianjinCaseStatistics_20200606.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nicole/Desktop/COV/tianjin/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE35C034-0014-4549-BFDA-8DE40A88666A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7490347E-1EC4-9A48-A181-831BF775A290}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -10889,8 +10889,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AT29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="R2" sqref="R2:R16"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="17"/>
@@ -11079,10 +11079,10 @@
         <v>3292</v>
       </c>
       <c r="C2" s="20">
-        <v>43987</v>
+        <v>43988</v>
       </c>
       <c r="D2" s="20">
-        <v>43988</v>
+        <v>43989</v>
       </c>
       <c r="E2" s="19" t="s">
         <v>43</v>
@@ -11152,10 +11152,10 @@
         <v>3292</v>
       </c>
       <c r="C3" s="20">
-        <v>43987</v>
+        <v>43988</v>
       </c>
       <c r="D3" s="20">
-        <v>43988</v>
+        <v>43989</v>
       </c>
       <c r="E3" s="19" t="s">
         <v>43</v>
@@ -11219,10 +11219,10 @@
         <v>3292</v>
       </c>
       <c r="C4" s="20">
-        <v>43987</v>
+        <v>43988</v>
       </c>
       <c r="D4" s="20">
-        <v>43988</v>
+        <v>43989</v>
       </c>
       <c r="E4" s="19" t="s">
         <v>43</v>
@@ -11284,10 +11284,10 @@
         <v>3292</v>
       </c>
       <c r="C5" s="20">
-        <v>43987</v>
+        <v>43988</v>
       </c>
       <c r="D5" s="20">
-        <v>43988</v>
+        <v>43989</v>
       </c>
       <c r="E5" s="19" t="s">
         <v>43</v>
@@ -11349,10 +11349,10 @@
         <v>3292</v>
       </c>
       <c r="C6" s="20">
-        <v>43987</v>
+        <v>43988</v>
       </c>
       <c r="D6" s="20">
-        <v>43988</v>
+        <v>43989</v>
       </c>
       <c r="E6" s="19" t="s">
         <v>43</v>
@@ -11414,10 +11414,10 @@
         <v>3292</v>
       </c>
       <c r="C7" s="20">
-        <v>43987</v>
+        <v>43988</v>
       </c>
       <c r="D7" s="20">
-        <v>43988</v>
+        <v>43989</v>
       </c>
       <c r="E7" s="19" t="s">
         <v>43</v>
@@ -11479,10 +11479,10 @@
         <v>3292</v>
       </c>
       <c r="C8" s="20">
-        <v>43987</v>
+        <v>43988</v>
       </c>
       <c r="D8" s="20">
-        <v>43988</v>
+        <v>43989</v>
       </c>
       <c r="E8" s="19" t="s">
         <v>43</v>
@@ -11544,10 +11544,10 @@
         <v>3292</v>
       </c>
       <c r="C9" s="20">
-        <v>43987</v>
+        <v>43988</v>
       </c>
       <c r="D9" s="20">
-        <v>43988</v>
+        <v>43989</v>
       </c>
       <c r="E9" s="19" t="s">
         <v>43</v>
@@ -11609,10 +11609,10 @@
         <v>3292</v>
       </c>
       <c r="C10" s="20">
-        <v>43987</v>
+        <v>43988</v>
       </c>
       <c r="D10" s="20">
-        <v>43988</v>
+        <v>43989</v>
       </c>
       <c r="E10" s="19" t="s">
         <v>43</v>
@@ -11674,10 +11674,10 @@
         <v>3292</v>
       </c>
       <c r="C11" s="20">
-        <v>43987</v>
+        <v>43988</v>
       </c>
       <c r="D11" s="20">
-        <v>43988</v>
+        <v>43989</v>
       </c>
       <c r="E11" s="19" t="s">
         <v>43</v>
@@ -11739,10 +11739,10 @@
         <v>3292</v>
       </c>
       <c r="C12" s="20">
-        <v>43987</v>
+        <v>43988</v>
       </c>
       <c r="D12" s="20">
-        <v>43988</v>
+        <v>43989</v>
       </c>
       <c r="E12" s="19" t="s">
         <v>43</v>
@@ -11804,10 +11804,10 @@
         <v>3292</v>
       </c>
       <c r="C13" s="20">
-        <v>43987</v>
+        <v>43988</v>
       </c>
       <c r="D13" s="20">
-        <v>43988</v>
+        <v>43989</v>
       </c>
       <c r="E13" s="19" t="s">
         <v>43</v>
@@ -11869,10 +11869,10 @@
         <v>3292</v>
       </c>
       <c r="C14" s="20">
-        <v>43987</v>
+        <v>43988</v>
       </c>
       <c r="D14" s="20">
-        <v>43988</v>
+        <v>43989</v>
       </c>
       <c r="E14" s="19" t="s">
         <v>43</v>
@@ -11934,10 +11934,10 @@
         <v>3292</v>
       </c>
       <c r="C15" s="20">
-        <v>43987</v>
+        <v>43988</v>
       </c>
       <c r="D15" s="20">
-        <v>43988</v>
+        <v>43989</v>
       </c>
       <c r="E15" s="19" t="s">
         <v>43</v>
@@ -11999,10 +11999,10 @@
         <v>3292</v>
       </c>
       <c r="C16" s="20">
-        <v>43987</v>
+        <v>43988</v>
       </c>
       <c r="D16" s="20">
-        <v>43988</v>
+        <v>43989</v>
       </c>
       <c r="E16" s="19" t="s">
         <v>43</v>
@@ -12067,10 +12067,10 @@
         <v>3292</v>
       </c>
       <c r="C17" s="20">
-        <v>43987</v>
+        <v>43988</v>
       </c>
       <c r="D17" s="20">
-        <v>43988</v>
+        <v>43989</v>
       </c>
       <c r="E17" s="19" t="s">
         <v>43</v>
@@ -12136,10 +12136,10 @@
         <v>3295</v>
       </c>
       <c r="C18" s="20">
-        <v>43987</v>
+        <v>43988</v>
       </c>
       <c r="D18" s="20">
-        <v>43988</v>
+        <v>43989</v>
       </c>
       <c r="E18" s="19" t="s">
         <v>43</v>
@@ -12204,10 +12204,10 @@
         <v>3295</v>
       </c>
       <c r="C19" s="20">
-        <v>43987</v>
+        <v>43988</v>
       </c>
       <c r="D19" s="20">
-        <v>43988</v>
+        <v>43989</v>
       </c>
       <c r="E19" s="19" t="s">
         <v>43</v>
@@ -12274,10 +12274,10 @@
         <v>3295</v>
       </c>
       <c r="C20" s="20">
-        <v>43987</v>
+        <v>43988</v>
       </c>
       <c r="D20" s="20">
-        <v>43988</v>
+        <v>43989</v>
       </c>
       <c r="E20" s="19" t="s">
         <v>43</v>
@@ -12339,10 +12339,10 @@
         <v>3295</v>
       </c>
       <c r="C21" s="20">
-        <v>43987</v>
+        <v>43988</v>
       </c>
       <c r="D21" s="20">
-        <v>43988</v>
+        <v>43989</v>
       </c>
       <c r="E21" s="19" t="s">
         <v>43</v>
@@ -12404,10 +12404,10 @@
         <v>3295</v>
       </c>
       <c r="C22" s="20">
-        <v>43987</v>
+        <v>43988</v>
       </c>
       <c r="D22" s="20">
-        <v>43988</v>
+        <v>43989</v>
       </c>
       <c r="E22" s="19" t="s">
         <v>43</v>
@@ -12472,10 +12472,10 @@
         <v>3295</v>
       </c>
       <c r="C23" s="20">
-        <v>43987</v>
+        <v>43988</v>
       </c>
       <c r="D23" s="20">
-        <v>43988</v>
+        <v>43989</v>
       </c>
       <c r="E23" s="19" t="s">
         <v>43</v>
@@ -12537,10 +12537,10 @@
         <v>3295</v>
       </c>
       <c r="C24" s="20">
-        <v>43987</v>
+        <v>43988</v>
       </c>
       <c r="D24" s="20">
-        <v>43988</v>
+        <v>43989</v>
       </c>
       <c r="E24" s="19" t="s">
         <v>43</v>
@@ -12602,10 +12602,10 @@
         <v>3295</v>
       </c>
       <c r="C25" s="20">
-        <v>43987</v>
+        <v>43988</v>
       </c>
       <c r="D25" s="20">
-        <v>43988</v>
+        <v>43989</v>
       </c>
       <c r="E25" s="19" t="s">
         <v>43</v>
@@ -12670,10 +12670,10 @@
         <v>3295</v>
       </c>
       <c r="C26" s="20">
-        <v>43987</v>
+        <v>43988</v>
       </c>
       <c r="D26" s="20">
-        <v>43988</v>
+        <v>43989</v>
       </c>
       <c r="E26" s="19" t="s">
         <v>43</v>
@@ -12738,10 +12738,10 @@
         <v>3295</v>
       </c>
       <c r="C27" s="20">
-        <v>43987</v>
+        <v>43988</v>
       </c>
       <c r="D27" s="20">
-        <v>43988</v>
+        <v>43989</v>
       </c>
       <c r="E27" s="19" t="s">
         <v>43</v>
@@ -12806,10 +12806,10 @@
         <v>3304</v>
       </c>
       <c r="C28" s="20">
-        <v>43987</v>
+        <v>43988</v>
       </c>
       <c r="D28" s="20">
-        <v>43988</v>
+        <v>43989</v>
       </c>
       <c r="E28" s="19" t="s">
         <v>43</v>
